--- a/Accuracy comparison.xlsx
+++ b/Accuracy comparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f2aada02d8a66f/Documents/GitHub/ANS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otomr\OneDrive\Documents\GitHub\ANS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{02E880A3-5BA5-43DB-9389-959B9AB79EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16A2066A-BF13-45B2-A583-2D8B0DC45C98}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73FEFF3-0D4A-4AC9-BA9E-3D12A6FBEE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03A6EF74-D702-4C2C-8C08-54AEE5288E88}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Method</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Random forests</t>
   </si>
 </sst>
 </file>
@@ -208,9 +211,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Logistic regression</c:v>
                 </c:pt>
@@ -229,15 +232,18 @@
                 <c:pt idx="5">
                   <c:v>SVM (sigmoid)</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random forests</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.86</c:v>
                 </c:pt>
@@ -255,6 +261,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,8 +1105,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -1424,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCD23C7-0974-4641-9C0B-0EB799F60FBE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1488,6 +1497,14 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
